--- a/src/assets/template/import-spu.xlsx
+++ b/src/assets/template/import-spu.xlsx
@@ -82,14 +82,14 @@
   </si>
   <si>
     <t>供货价格
-（单位：元，仅支持录入正数）</t>
+（单位：元，仅支持录入正数，保留两位小数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
